--- a/bh3/507103374147550707_2021-03-28_13-00-05.xlsx
+++ b/bh3/507103374147550707_2021-03-28_13-00-05.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -544,10 +560,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-04-22 10:59:34</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44308.4580324074</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -622,10 +636,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-04-16 18:19:52</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44302.7637962963</v>
       </c>
       <c r="I3" t="n">
         <v>2</v>
@@ -697,10 +709,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-04-08 00:43:05</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44294.02991898148</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -764,10 +774,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-04-03 19:46:48</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44289.82416666667</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -863,10 +871,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-04-01 23:27:48</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44287.97763888889</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -935,10 +941,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-04-01 13:54:38</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44287.57960648148</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -998,10 +1002,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-03-29 08:24:49</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44284.35056712963</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1073,10 +1075,8 @@
           <t>4328739027</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-03-28 22:54:49</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44283.95473379629</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1136,10 +1136,8 @@
           <t>4330048781</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:56:07</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44283.83063657407</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -1203,10 +1201,8 @@
           <t>4328739027</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:46:46</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44283.82414351852</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1270,10 +1266,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:13:43</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44283.80119212963</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1349,10 +1343,8 @@
           <t>4329793912</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:00:37</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44283.79209490741</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1424,10 +1416,8 @@
           <t>4329796980</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:00:31</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44283.79202546296</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1499,10 +1489,8 @@
           <t>4328368990</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:59:52</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44283.79157407407</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1579,10 +1567,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:59:36</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44283.79138888889</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1654,10 +1640,8 @@
           <t>4329775838</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:55:23</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44283.78846064815</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1733,10 +1717,8 @@
           <t>4329725928</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:44:35</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44283.78096064815</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1817,10 +1799,8 @@
           <t>4329720474</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:43:21</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44283.78010416667</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1896,10 +1876,8 @@
           <t>4329641809</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:26:22</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44283.76831018519</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1972,10 +1950,8 @@
           <t>4329633852</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:26:06</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44283.768125</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2048,10 +2024,8 @@
           <t>4329444589</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:45:36</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44283.74</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2115,10 +2089,8 @@
           <t>4329102158</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:39:31</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44283.73577546296</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2190,10 +2162,8 @@
           <t>4329368808</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:28:12</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44283.72791666666</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2265,10 +2235,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:26:17</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44283.72658564815</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2340,10 +2308,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:24:29</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44283.72533564815</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2407,10 +2373,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:23:35</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44283.72471064814</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2482,10 +2446,8 @@
           <t>4328809935</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:49:22</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44283.70094907407</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2557,10 +2519,8 @@
           <t>4329161918</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:38:25</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44283.69334490741</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2628,10 +2588,8 @@
           <t>4329102158</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:29:17</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44283.68700231481</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2707,10 +2665,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:27:12</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44283.68555555555</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2778,10 +2734,8 @@
           <t>4329102158</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:24:18</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44283.68354166667</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2849,10 +2803,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:06:12</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44283.67097222222</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2916,10 +2868,8 @@
           <t>4328874930</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:47:05</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44283.65769675926</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2987,10 +2937,8 @@
           <t>4328900862</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:35:04</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44283.64935185185</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3066,10 +3014,8 @@
           <t>4328874930</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:30:32</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44283.64620370371</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3133,10 +3079,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:28:47</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44283.64498842593</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3205,10 +3149,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:26:52</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44283.64365740741</v>
       </c>
       <c r="I38" t="n">
         <v>24</v>
@@ -3276,10 +3218,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:17:21</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44283.63704861111</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3356,10 +3296,8 @@
           <t>4328809935</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:14:43</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44283.63521990741</v>
       </c>
       <c r="I40" t="n">
         <v>1</v>
@@ -3427,10 +3365,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:08:12</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44283.63069444444</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3506,10 +3442,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:04:15</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44283.62795138889</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3573,10 +3507,8 @@
           <t>4328739027</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:55:17</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44283.62172453704</v>
       </c>
       <c r="I43" t="n">
         <v>5</v>
@@ -3652,10 +3584,8 @@
           <t>4328718772</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:51:02</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44283.61877314815</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3715,10 +3645,8 @@
           <t>4328718209</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:50:36</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44283.61847222222</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3778,10 +3706,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:50:11</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44283.61818287037</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3858,10 +3784,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:49:56</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44283.61800925926</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3929,10 +3853,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:49:15</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44283.61753472222</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -4004,10 +3926,8 @@
           <t>4328704708</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:47:56</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44283.61662037037</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4079,10 +3999,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:46:51</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44283.61586805555</v>
       </c>
       <c r="I50" t="n">
         <v>7</v>
@@ -4154,10 +4072,8 @@
           <t>4328300391</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:45:30</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44283.61493055556</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4233,10 +4149,8 @@
           <t>4328614531</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:42:30</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44283.61284722222</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4308,10 +4222,8 @@
           <t>4328559536</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:42:00</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44283.6125</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4383,10 +4295,8 @@
           <t>4328685601</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:41:01</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44283.61181712963</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4446,10 +4356,8 @@
           <t>4328682085</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:40:52</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44283.61171296296</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4513,10 +4421,8 @@
           <t>4328674956</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:40:31</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44283.61146990741</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4588,10 +4494,8 @@
           <t>4328515302</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:36:29</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44283.60866898148</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4663,10 +4567,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:30:04</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44283.60421296296</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4726,10 +4628,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:29:30</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44283.60381944444</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4801,10 +4701,8 @@
           <t>4328635330</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:28:40</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44283.60324074074</v>
       </c>
       <c r="I60" t="n">
         <v>8</v>
@@ -4880,10 +4778,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:28:34</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44283.60317129629</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4959,10 +4855,8 @@
           <t>4328526561</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:27:23</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44283.60234953704</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5034,10 +4928,8 @@
           <t>4328614531</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:25:27</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44283.60100694445</v>
       </c>
       <c r="I63" t="n">
         <v>2</v>
@@ -5114,10 +5006,8 @@
           <t>4328497778</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:23:07</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44283.59938657407</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5191,10 +5081,8 @@
           <t>4328605178</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:21:16</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44283.59810185185</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5266,10 +5154,8 @@
           <t>4328592267</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:19:10</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44283.59664351852</v>
       </c>
       <c r="I66" t="n">
         <v>14</v>
@@ -5345,10 +5231,8 @@
           <t>4328588649</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:17:42</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44283.595625</v>
       </c>
       <c r="I67" t="n">
         <v>1</v>
@@ -5424,10 +5308,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:17:33</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44283.59552083333</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5495,10 +5377,8 @@
           <t>4328256873</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:15:36</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44283.59416666667</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5574,10 +5454,8 @@
           <t>4328347074</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:13:50</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44283.59293981481</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5653,10 +5531,8 @@
           <t>4328256873</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:11:25</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44283.59126157407</v>
       </c>
       <c r="I71" t="n">
         <v>1</v>
@@ -5728,10 +5604,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:11:20</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44283.59120370371</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5807,10 +5681,8 @@
           <t>4328559536</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:11:04</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44283.59101851852</v>
       </c>
       <c r="I73" t="n">
         <v>10</v>
@@ -5886,10 +5758,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:10:04</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44283.59032407407</v>
       </c>
       <c r="I74" t="n">
         <v>2</v>
@@ -5957,10 +5827,8 @@
           <t>4328537330</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:05:47</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44283.58734953704</v>
       </c>
       <c r="I75" t="n">
         <v>4</v>
@@ -6028,10 +5896,8 @@
           <t>4328536558</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:05:16</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44283.58699074074</v>
       </c>
       <c r="I76" t="n">
         <v>6</v>
@@ -6099,10 +5965,8 @@
           <t>4328540492</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:04:35</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44283.5865162037</v>
       </c>
       <c r="I77" t="n">
         <v>2</v>
@@ -6170,10 +6034,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:03:49</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44283.5859837963</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6237,10 +6099,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:03:07</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44283.58549768518</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6320,10 +6180,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:02:26</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44283.58502314815</v>
       </c>
       <c r="I80" t="n">
         <v>1</v>
@@ -6387,10 +6245,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:02:00</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44283.58472222222</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6467,10 +6323,8 @@
           <t>4328521702</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:01:52</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44283.58462962963</v>
       </c>
       <c r="I82" t="n">
         <v>3</v>
@@ -6544,10 +6398,8 @@
           <t>4328526561</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:01:47</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44283.58457175926</v>
       </c>
       <c r="I83" t="n">
         <v>43</v>
@@ -6621,10 +6473,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:01:42</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44283.58451388889</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6698,10 +6548,8 @@
           <t>4328515302</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:00:16</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44283.58351851852</v>
       </c>
       <c r="I85" t="n">
         <v>10</v>
@@ -6774,10 +6622,8 @@
           <t>4328503569</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:59:04</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44283.58268518518</v>
       </c>
       <c r="I86" t="n">
         <v>1</v>
@@ -6855,10 +6701,8 @@
           <t>4328511926</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:58:34</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44283.58233796297</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6926,10 +6770,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:57:35</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44283.5816550926</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6997,10 +6839,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:57:34</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44283.58164351852</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -7076,10 +6916,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:57:13</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44283.58140046296</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7155,10 +6993,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:57:07</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44283.58133101852</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7234,10 +7070,8 @@
           <t>4328497778</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:55:36</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44283.58027777778</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7309,10 +7143,8 @@
           <t>4328392589</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:55:22</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44283.58011574074</v>
       </c>
       <c r="I93" t="n">
         <v>2</v>
@@ -7380,10 +7212,8 @@
           <t>4328491703</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:54:48</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44283.57972222222</v>
       </c>
       <c r="I94" t="n">
         <v>25</v>
@@ -7447,10 +7277,8 @@
           <t>4328491013</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:54:19</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44283.57938657407</v>
       </c>
       <c r="I95" t="n">
         <v>6</v>
@@ -7527,10 +7355,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:47:36</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44283.57472222222</v>
       </c>
       <c r="I96" t="n">
         <v>434</v>
@@ -7597,10 +7423,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:47:17</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44283.57450231481</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7672,10 +7496,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:45:26</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44283.5732175926</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7747,10 +7569,8 @@
           <t>4328443048</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:45:03</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44283.57295138889</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7822,10 +7642,8 @@
           <t>4328446106</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:44:02</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44283.57224537037</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7889,10 +7707,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:43:45</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44283.57204861111</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7952,10 +7768,8 @@
           <t>4328427587</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:41:26</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44283.57043981482</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -8019,10 +7833,8 @@
           <t>4328430195</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:40:01</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44283.56945601852</v>
       </c>
       <c r="I103" t="n">
         <v>1</v>
@@ -8086,10 +7898,8 @@
           <t>4328414534</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:39:26</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44283.56905092593</v>
       </c>
       <c r="I104" t="n">
         <v>18</v>
@@ -8157,10 +7967,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:38:18</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44283.56826388889</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8237,10 +8045,8 @@
           <t>4328383800</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:38:10</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44283.5681712963</v>
       </c>
       <c r="I106" t="n">
         <v>3</v>
@@ -8308,10 +8114,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:38:05</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44283.56811342593</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8383,10 +8187,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:38:04</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44283.56810185185</v>
       </c>
       <c r="I108" t="n">
         <v>1</v>
@@ -8462,10 +8264,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:37:17</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44283.56755787037</v>
       </c>
       <c r="I109" t="n">
         <v>1</v>
@@ -8541,10 +8341,8 @@
           <t>4328383800</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:37:04</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44283.5674074074</v>
       </c>
       <c r="I110" t="n">
         <v>9</v>
@@ -8609,10 +8407,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:36:22</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44283.5669212963</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8684,10 +8480,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:35:44</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44283.56648148148</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8751,10 +8545,8 @@
           <t>4328383800</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:34:07</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44283.5653587963</v>
       </c>
       <c r="I113" t="n">
         <v>1</v>
@@ -8826,10 +8618,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:32:30</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44283.56423611111</v>
       </c>
       <c r="I114" t="n">
         <v>1</v>
@@ -8905,10 +8695,8 @@
           <t>4328383800</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:32:26</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44283.56418981482</v>
       </c>
       <c r="I115" t="n">
         <v>13</v>
@@ -8972,10 +8760,8 @@
           <t>4328392589</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:32:02</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44283.56391203704</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -9051,10 +8837,8 @@
           <t>4328380814</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:30:29</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44283.56283564815</v>
       </c>
       <c r="I117" t="n">
         <v>12</v>
@@ -9126,10 +8910,8 @@
           <t>4328368990</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:29:17</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44283.56200231481</v>
       </c>
       <c r="I118" t="n">
         <v>2</v>
@@ -9206,10 +8988,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:28:46</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44283.56164351852</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9285,10 +9065,8 @@
           <t>4328367926</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:28:36</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44283.56152777778</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9360,10 +9138,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:27:53</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44283.56103009259</v>
       </c>
       <c r="I121" t="n">
         <v>1</v>
@@ -9435,10 +9211,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:26:50</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44283.56030092593</v>
       </c>
       <c r="I122" t="n">
         <v>5</v>
@@ -9506,10 +9280,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:26:44</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44283.56023148148</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9569,10 +9341,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:25:49</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44283.5595949074</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9640,10 +9410,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:25:35</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44283.55943287037</v>
       </c>
       <c r="I125" t="n">
         <v>1</v>
@@ -9710,10 +9478,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:24:39</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44283.55878472222</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9781,10 +9547,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:24:29</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44283.55866898148</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9852,10 +9616,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:24:26</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44283.55863425926</v>
       </c>
       <c r="I128" t="n">
         <v>1</v>
@@ -9931,10 +9693,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:23:09</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44283.55774305556</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -10006,10 +9766,8 @@
           <t>4328342835</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:22:14</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44283.55710648148</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -10081,10 +9839,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:22:05</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44283.55700231482</v>
       </c>
       <c r="I131" t="n">
         <v>7</v>
@@ -10163,10 +9919,8 @@
           <t>4328337845</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:22:03</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44283.55697916666</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10230,10 +9984,8 @@
           <t>4328347055</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:22:03</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44283.55697916666</v>
       </c>
       <c r="I133" t="n">
         <v>10</v>
@@ -10309,10 +10061,8 @@
           <t>4328347074</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:22:03</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44283.55697916666</v>
       </c>
       <c r="I134" t="n">
         <v>7</v>
@@ -10380,10 +10130,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:21:40</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44283.55671296296</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10451,10 +10199,8 @@
           <t>4328256873</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:20:24</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44283.55583333333</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10530,10 +10276,8 @@
           <t>4328335077</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:20:21</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44283.55579861111</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10601,10 +10345,8 @@
           <t>4328333048</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:19:35</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44283.5552662037</v>
       </c>
       <c r="I138" t="n">
         <v>18</v>
@@ -10672,10 +10414,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:17:11</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44283.55359953704</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10752,10 +10492,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:16:48</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44283.55333333334</v>
       </c>
       <c r="I140" t="n">
         <v>520</v>
@@ -10825,10 +10563,8 @@
           <t>4328318161</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:16:34</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44283.5531712963</v>
       </c>
       <c r="I141" t="n">
         <v>7</v>
@@ -10896,10 +10632,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:16:30</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44283.553125</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10975,10 +10709,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:15:30</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44283.55243055556</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -11046,10 +10778,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:15:27</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44283.55239583334</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -11117,10 +10847,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:15:23</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44283.55234953704</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11192,10 +10920,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:15:09</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44283.5521875</v>
       </c>
       <c r="I146" t="n">
         <v>1</v>
@@ -11264,10 +10990,8 @@
           <t>4328311075</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:15:05</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44283.55214120371</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11335,10 +11059,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:15:02</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44283.55210648148</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11414,10 +11136,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:14:26</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44283.55168981481</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11485,10 +11205,8 @@
           <t>4328303929</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:13:57</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44283.55135416667</v>
       </c>
       <c r="I150" t="n">
         <v>4</v>
@@ -11564,10 +11282,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:13:55</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44283.55133101852</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11635,10 +11351,8 @@
           <t>4328256873</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:13:40</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44283.5511574074</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11698,10 +11412,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:13:39</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44283.55114583333</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11777,10 +11489,8 @@
           <t>4328271753</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:13:35</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44283.55109953704</v>
       </c>
       <c r="I154" t="n">
         <v>2</v>
@@ -11852,10 +11562,8 @@
           <t>4328298342</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:13:25</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44283.5509837963</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11919,10 +11627,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:13:16</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44283.55087962963</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11990,10 +11696,8 @@
           <t>4328297331</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:12:48</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44283.55055555556</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -12061,10 +11765,8 @@
           <t>4328301273</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:12:21</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44283.55024305556</v>
       </c>
       <c r="I158" t="n">
         <v>1</v>
@@ -12132,10 +11834,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:12:19</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44283.55021990741</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12203,10 +11903,8 @@
           <t>4328300391</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:11:50</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44283.54988425926</v>
       </c>
       <c r="I160" t="n">
         <v>39</v>
@@ -12284,10 +11982,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:11:48</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44283.54986111111</v>
       </c>
       <c r="I161" t="n">
         <v>5</v>
@@ -12351,10 +12047,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:11:31</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44283.54966435185</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12422,10 +12116,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:11:18</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44283.54951388889</v>
       </c>
       <c r="I163" t="n">
         <v>1</v>
@@ -12493,10 +12185,8 @@
           <t>4328288287</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:10:35</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44283.5490162037</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12575,10 +12265,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:09:45</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44283.5484375</v>
       </c>
       <c r="I165" t="n">
         <v>12</v>
@@ -12650,10 +12338,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:08:11</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44283.54734953704</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12725,10 +12411,8 @@
           <t>4328274137</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:08:05</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44283.54728009259</v>
       </c>
       <c r="I167" t="n">
         <v>2</v>
@@ -12800,10 +12484,8 @@
           <t>4328256873</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:07:51</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44283.54711805555</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12875,10 +12557,8 @@
           <t>4328256873</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:07:36</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44283.54694444445</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12942,10 +12622,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:07:29</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44283.54686342592</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -13009,10 +12687,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:07:29</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44283.54686342592</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -13080,10 +12756,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:07:16</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44283.54671296296</v>
       </c>
       <c r="I172" t="n">
         <v>4</v>
@@ -13155,10 +12829,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:07:12</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44283.54666666667</v>
       </c>
       <c r="I173" t="n">
         <v>5</v>
@@ -13234,10 +12906,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:07:10</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44283.54664351852</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13309,10 +12979,8 @@
           <t>4328271753</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:07:05</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44283.54658564815</v>
       </c>
       <c r="I175" t="n">
         <v>1</v>
@@ -13372,10 +13040,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:07:03</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44283.5465625</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13447,10 +13113,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:06:47</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44283.54637731481</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13514,10 +13178,8 @@
           <t>4328271753</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:06:39</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44283.54628472222</v>
       </c>
       <c r="I178" t="n">
         <v>10</v>
@@ -13587,10 +13249,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:06:19</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44283.54605324074</v>
       </c>
       <c r="I179" t="n">
         <v>69</v>
@@ -13660,10 +13320,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:06:16</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44283.54601851852</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13739,10 +13397,8 @@
           <t>4328256873</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:06:06</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44283.54590277778</v>
       </c>
       <c r="I181" t="n">
         <v>1</v>
@@ -13814,10 +13470,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:05:37</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44283.54556712963</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13881,10 +13535,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:05:32</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44283.54550925926</v>
       </c>
       <c r="I183" t="n">
         <v>174</v>
@@ -13948,10 +13600,8 @@
           <t>4328259683</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:05:27</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44283.54545138889</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -14027,10 +13677,8 @@
           <t>4328254919</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:05:27</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44283.54545138889</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -14102,10 +13750,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:05:24</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44283.54541666667</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14177,10 +13823,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:05:20</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44283.54537037037</v>
       </c>
       <c r="I187" t="n">
         <v>1</v>
@@ -14256,10 +13900,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:05:05</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44283.54519675926</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14327,10 +13969,8 @@
           <t>4328258984</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:05:02</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44283.54516203704</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14403,10 +14043,8 @@
           <t>4328260359</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:05:01</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44283.54515046296</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14474,10 +14112,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:04:49</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44283.54501157408</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14549,10 +14185,8 @@
           <t>4328260021</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:04:48</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44283.545</v>
       </c>
       <c r="I192" t="n">
         <v>3</v>
@@ -14624,10 +14258,8 @@
           <t>4328258566</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:04:47</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44283.54498842593</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14699,10 +14331,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:04:45</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44283.54496527778</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14774,10 +14404,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:04:16</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44283.54462962963</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14841,10 +14469,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:04:12</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44283.54458333334</v>
       </c>
       <c r="I196" t="n">
         <v>1359</v>
@@ -14912,10 +14538,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:04:05</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44283.54450231481</v>
       </c>
       <c r="I197" t="n">
         <v>26</v>
@@ -14979,10 +14603,8 @@
           <t>4328256873</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:03:45</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44283.54427083334</v>
       </c>
       <c r="I198" t="n">
         <v>2</v>
@@ -15054,10 +14676,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:03:33</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44283.54413194444</v>
       </c>
       <c r="I199" t="n">
         <v>1</v>
@@ -15133,10 +14753,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:03:32</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44283.54412037037</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -15200,10 +14818,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:03:27</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44283.5440625</v>
       </c>
       <c r="I201" t="n">
         <v>61</v>
@@ -15263,10 +14879,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:03:23</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44283.5440162037</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15344,10 +14958,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:03:21</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44283.54399305556</v>
       </c>
       <c r="I203" t="n">
         <v>76</v>
@@ -15423,10 +15035,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:03:17</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44283.54394675926</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15494,10 +15104,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:03:00</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44283.54375</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15561,10 +15169,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:02:46</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44283.54358796297</v>
       </c>
       <c r="I206" t="n">
         <v>2</v>
@@ -15632,10 +15238,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:02:43</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44283.54355324074</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15711,10 +15315,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:02:42</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44283.54354166667</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15790,10 +15392,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:02:36</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44283.54347222222</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15861,10 +15461,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:02:34</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44283.54344907407</v>
       </c>
       <c r="I210" t="n">
         <v>5</v>
@@ -15936,10 +15534,8 @@
           <t>4328246049</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:02:23</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44283.54332175926</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -16015,10 +15611,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:02:17</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44283.54325231481</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -16094,10 +15688,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:02:14</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44283.5432175926</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -16167,10 +15759,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:02:10</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44283.5431712963</v>
       </c>
       <c r="I214" t="n">
         <v>589</v>
@@ -16242,10 +15832,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:02:01</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44283.54306712963</v>
       </c>
       <c r="I215" t="n">
         <v>1</v>
@@ -16309,10 +15897,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:02:01</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44283.54306712963</v>
       </c>
       <c r="I216" t="n">
         <v>7</v>
@@ -16389,10 +15975,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:01:25</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44283.54265046296</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16464,10 +16048,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:01:21</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44283.54260416667</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16543,10 +16125,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:01:15</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44283.54253472222</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16618,10 +16198,8 @@
           <t>4328242571</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:01:13</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44283.54251157407</v>
       </c>
       <c r="I220" t="n">
         <v>1</v>
@@ -16697,10 +16275,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:01:02</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44283.54238425926</v>
       </c>
       <c r="I221" t="n">
         <v>2</v>
@@ -16776,10 +16352,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:01:00</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44283.54236111111</v>
       </c>
       <c r="I222" t="n">
         <v>1</v>
@@ -16855,10 +16429,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:00:59</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44283.54234953703</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16922,10 +16494,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:00:58</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44283.54233796296</v>
       </c>
       <c r="I224" t="n">
         <v>1</v>
@@ -16985,10 +16555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:00:57</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44283.54232638889</v>
       </c>
       <c r="I225" t="n">
         <v>27</v>
@@ -17064,10 +16632,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:00:57</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44283.54232638889</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -17144,10 +16710,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:00:55</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44283.54230324074</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -17212,10 +16776,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:00:49</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44283.5422337963</v>
       </c>
       <c r="I228" t="n">
         <v>1</v>
@@ -17292,10 +16854,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:00:49</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44283.5422337963</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17363,10 +16923,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:00:35</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44283.54207175926</v>
       </c>
       <c r="I230" t="n">
         <v>1</v>
@@ -17442,10 +17000,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:00:34</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44283.54206018519</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17513,10 +17069,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:00:28</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44283.54199074074</v>
       </c>
       <c r="I232" t="n">
         <v>1</v>
@@ -17589,10 +17143,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:00:26</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44283.5419675926</v>
       </c>
       <c r="I233" t="n">
         <v>1</v>
@@ -17668,10 +17220,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:00:22</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44283.5419212963</v>
       </c>
       <c r="I234" t="n">
         <v>1</v>
@@ -17747,10 +17297,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:00:13</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44283.54181712963</v>
       </c>
       <c r="I235" t="n">
         <v>1</v>
